--- a/biology/Zoologie/Camaenidae/Camaenidae.xlsx
+++ b/biology/Zoologie/Camaenidae/Camaenidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Camaenidae sont une famille d'escargots terrestres. Ils occupent une large variété d'habitats de l'est de l'Asie et de l'Australasie. Anciennement, un grand nombre d'espèces américaines étaient rattachées à cette famille, mais en ont été retirées.
 Leurs coquilles sont plutôt de grande taille : 25 à 50 mm. Seules quelques espèces ont des petites coquilles. Celles-ci sont parfois vivement colorées, d'autres sont d'un aspect plus terne.
@@ -512,9 +524,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À partir de la fin des années 1990, plusieurs travaux se basant sur la phylogénie discutent du caractère monophylétique[1] ou paraphylétique[2],[3], et démontrent que cette famille devait être radicalement redéfinie, car les Camaenidae d'Asie et d'Australasie s'avéraient très proches des Bradybaenidae, qui en deviendrait une sous-famille, alors que les Camaenidae d'Amérique devaient appartenir à d'autres groupes, et étaient progressivement répartis parmi les Pleurodontidae, les Sagdidae, les Zachrysiidae et les Xanthonychidae. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À partir de la fin des années 1990, plusieurs travaux se basant sur la phylogénie discutent du caractère monophylétique ou paraphylétique et démontrent que cette famille devait être radicalement redéfinie, car les Camaenidae d'Asie et d'Australasie s'avéraient très proches des Bradybaenidae, qui en deviendrait une sous-famille, alors que les Camaenidae d'Amérique devaient appartenir à d'autres groupes, et étaient progressivement répartis parmi les Pleurodontidae, les Sagdidae, les Zachrysiidae et les Xanthonychidae. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Molluscabase[4], les Camaenidae se composerait des sous-familles suivantes :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Molluscabase, les Camaenidae se composerait des sous-familles suivantes :
 Bradybaeninae Pilsbry, 1934 (1898), anciennement Bradybaenidae;
 Camaeninae Pilsbry, 1895
 Hadrinae Iredale, 1937,
@@ -579,13 +595,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (28 mai 2013)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (28 mai 2013) :
 genre Caracolus Montfort, 1810
 genre Papustyla Pilsbry, 1893
 genre Zachrysia Pilsbry, 1894
-Selon NCBI  (28 mai 2013)[6] :
+Selon NCBI  (28 mai 2013) :
 genre Adclarkia
 genre Amphidromus
 genre Amplirhagada
